--- a/docs/data/packages.xlsx
+++ b/docs/data/packages.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Selina_User\Files_Selina\Repos\02_workshops\rmarkdown\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8084EE80-623D-4B5C-BF2A-8E00C0733DD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1DF27B46-D5F3-480E-9B7F-EE1DF38E17EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-2505" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-35730" yWindow="240" windowWidth="17280" windowHeight="9075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="packages" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>Package</t>
   </si>
@@ -126,6 +127,18 @@
   </si>
   <si>
     <t>[website](https://pkgs.rstudio.com/rticles/)</t>
+  </si>
+  <si>
+    <t>`distill`</t>
+  </si>
+  <si>
+    <t>Websites</t>
+  </si>
+  <si>
+    <t>A package that allows for easy creation of Websites and Blogs using R Markdown</t>
+  </si>
+  <si>
+    <t>[website with tutorials](https://rstudio.github.io/distill/website.html)</t>
   </si>
 </sst>
 </file>
@@ -985,7 +998,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1108,6 +1121,20 @@
         <v>24</v>
       </c>
     </row>
+    <row r="9" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D10" s="2"/>
     </row>
